--- a/backend/Project Sample Data/perfect-format.xlsx
+++ b/backend/Project Sample Data/perfect-format.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paolo\OneDrive\Desktop\128\GWA-Verifier\backend\Project Sample Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D649AD-D45C-4A4D-8EBE-095077BFEE14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EBD696A-A858-4D63-B05C-E2DC8F4F0506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -668,7 +668,7 @@
   </sheetPr>
   <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
@@ -1867,8 +1867,8 @@
   </sheetPr>
   <dimension ref="A1:I64"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E61" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3080,8 +3080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82FDE90A-6481-4F0F-88A9-9D9894FC803C}">
   <dimension ref="A1:I64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H58" sqref="H58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4293,7 +4293,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FDE020C-1465-40AF-BE0C-D90C1AAC20FE}">
   <dimension ref="A1:I64"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
       <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
